--- a/Test Scenarios/SG Digital.xlsx
+++ b/Test Scenarios/SG Digital.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7ACDF1-0C77-43E6-B8BC-21D438C44462}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31180D4E-EE49-42A8-AB67-2FEB7C78D250}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>User enters "Software #Engineer#" in the search text field</t>
+  </si>
+  <si>
+    <t>User is at SG Digital career section and no filters are applied</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -590,7 +593,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -598,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -640,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7"/>
     </row>
